--- a/01-getting-started/data/yrbss20.xlsx
+++ b/01-getting-started/data/yrbss20.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t xml:space="preserve">record</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">age</t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">bmi</t>
   </si>
   <si>
-    <t xml:space="preserve">text_while_driving</t>
+    <t xml:space="preserve">text_while_driving_30d</t>
   </si>
   <si>
     <t xml:space="preserve">smoked_ever</t>
@@ -41,70 +41,70 @@
     <t xml:space="preserve">bullied_past_12mo</t>
   </si>
   <si>
+    <t xml:space="preserve">17 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 years old</t>
   </si>
   <si>
+    <t xml:space="preserve">9th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 years old</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">15 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black or African American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All other races</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hispanic/Latino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 2 days</t>
   </si>
   <si>
     <t xml:space="preserve">11th</t>
   </si>
   <si>
-    <t xml:space="preserve">All other races</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hispanic/Latino</t>
+    <t xml:space="preserve">3 to 5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did not drive the past 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">18 years old or older</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 or 2 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 to 5 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I did not drive the past 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 to 9 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 years old</t>
+    <t xml:space="preserve">All 30 days</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>324104</v>
+        <v>335340</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -475,68 +475,64 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>22.082</v>
+        <v>27.5671</v>
       </c>
       <c r="G2"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>924945</v>
+        <v>638618</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>22.4298</v>
+        <v>29.3495</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>926932</v>
+        <v>922382</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>24.5</v>
+        <v>18.1827</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -544,26 +540,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>929221</v>
+        <v>923122</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>19.2169</v>
+        <v>21.3754</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -571,26 +567,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>929263</v>
+        <v>923963</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>25.5848</v>
+        <v>19.5988</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -598,22 +594,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>936187</v>
+        <v>925603</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>26.6593</v>
+        <v>22.191</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
@@ -625,49 +621,49 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>937488</v>
+        <v>933724</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>25.4901</v>
+        <v>20.9913</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1108114</v>
+        <v>935435</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" t="n">
-        <v>26.5781</v>
+        <v>17.4814</v>
       </c>
       <c r="G9"/>
       <c r="H9" t="s">
@@ -679,36 +675,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1303679</v>
+        <v>1096564</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" t="n">
-        <v>19.2555</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
+        <v>22.4593</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1305984</v>
+        <v>1108114</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -717,19 +709,17 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>20.0417</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>26.5781</v>
+      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -737,57 +727,55 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1306389</v>
+        <v>1306150</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>32.7347</v>
+        <v>21.1874</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1306588</v>
+        <v>1307481</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>22.9584</v>
+        <v>19.4637</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -795,28 +783,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1307157</v>
+        <v>1307872</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>21.4697</v>
+        <v>20.6121</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -824,79 +812,83 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1307947</v>
+        <v>1311617</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15"/>
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
       <c r="F15" t="n">
-        <v>21.825</v>
-      </c>
-      <c r="G15"/>
+        <v>27.4648</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1309821</v>
+        <v>1313153</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>25.1595</v>
+        <v>26.5781</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1310496</v>
+        <v>1313291</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>24.8086</v>
+        <v>24.8047</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
@@ -907,57 +899,55 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1311230</v>
+        <v>1313477</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" t="n">
-        <v>20.5711</v>
+        <v>25.0318</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1311335</v>
+        <v>1315121</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="n">
-        <v>27.2994</v>
+        <v>22.2687</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -965,60 +955,58 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1311600</v>
+        <v>1315850</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>22.2872</v>
+        <v>19.4922</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
+      <c r="H20"/>
       <c r="I20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1313015</v>
+        <v>1316123</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
       <c r="F21" t="n">
-        <v>31.3386</v>
+        <v>27.4894</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/01-getting-started/data/yrbss20.xlsx
+++ b/01-getting-started/data/yrbss20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">bmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
   </si>
   <si>
     <t xml:space="preserve">text_while_driving_30d</t>
@@ -464,77 +467,89 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>335340</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>27.5671</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="n">
+        <v>3.1945</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>638618</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
         <v>29.3495</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3"/>
+      <c r="G3" t="n">
+        <v>1.0206</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>922382</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>18.1827</v>
       </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="b">
+      <c r="G4" t="n">
+        <v>2.0312</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -543,25 +558,28 @@
         <v>923122</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>21.3754</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="b">
+      <c r="G5" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -570,25 +588,28 @@
         <v>923963</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>19.5988</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="b">
+      <c r="G6" t="n">
+        <v>0.6833</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -597,25 +618,28 @@
         <v>925603</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>22.191</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="b">
+      <c r="G7" t="n">
+        <v>0.8456</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -624,25 +648,28 @@
         <v>933724</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>20.9913</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="b">
+      <c r="G8" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -651,25 +678,28 @@
         <v>935435</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>17.4814</v>
       </c>
-      <c r="G9"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="G9" t="n">
+        <v>0.8511</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -678,23 +708,26 @@
         <v>1096564</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>22.4593</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" t="n">
+        <v>1.2463</v>
+      </c>
       <c r="H10"/>
-      <c r="I10" t="b">
+      <c r="I10"/>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -703,25 +736,28 @@
         <v>1108114</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>26.5781</v>
       </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="b">
+      <c r="G11" t="n">
+        <v>0.8134</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -730,25 +766,28 @@
         <v>1306150</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>21.1874</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" t="b">
+      <c r="G12" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -757,27 +796,30 @@
         <v>1307481</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>19.4637</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
+      <c r="G13" t="n">
+        <v>0.2678</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="b">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -786,27 +828,30 @@
         <v>1307872</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>20.6121</v>
       </c>
-      <c r="G14" t="s">
-        <v>25</v>
+      <c r="G14" t="n">
+        <v>0.8173</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="b">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -815,27 +860,30 @@
         <v>1311617</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>27.4648</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
+      <c r="G15" t="n">
+        <v>0.4251</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="b">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -844,27 +892,30 @@
         <v>1313153</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>26.5781</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
+      <c r="G16" t="n">
+        <v>0.5173</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="b">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -873,27 +924,30 @@
         <v>1313291</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>24.8047</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
+      <c r="G17" t="n">
+        <v>1.1997</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="b">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -902,27 +956,30 @@
         <v>1313477</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>25.0318</v>
       </c>
-      <c r="G18" t="s">
-        <v>24</v>
+      <c r="G18" t="n">
+        <v>0.9901</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="b">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -931,25 +988,28 @@
         <v>1315121</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
         <v>22.2687</v>
       </c>
-      <c r="G19" t="s">
-        <v>28</v>
+      <c r="G19" t="n">
+        <v>4.4926</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="b">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -958,25 +1018,28 @@
         <v>1315850</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>19.4922</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20" t="b">
+      <c r="G20" t="n">
+        <v>0.8376</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -985,27 +1048,30 @@
         <v>1316123</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>27.4894</v>
       </c>
-      <c r="G21" t="s">
-        <v>30</v>
+      <c r="G21" t="n">
+        <v>0.2913</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="b">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/01-getting-started/data/yrbss20.xlsx
+++ b/01-getting-started/data/yrbss20.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">bmi</t>
   </si>
   <si>
-    <t xml:space="preserve">weight</t>
+    <t xml:space="preserve">weight_kg</t>
   </si>
   <si>
     <t xml:space="preserve">text_while_driving_30d</t>
@@ -491,7 +491,7 @@
         <v>27.5671</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1945</v>
+        <v>66.23</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -515,7 +515,7 @@
         <v>29.3495</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0206</v>
+        <v>84.82</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
@@ -543,7 +543,7 @@
         <v>18.1827</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0312</v>
+        <v>57.61</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
@@ -573,7 +573,7 @@
         <v>21.3754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5954</v>
+        <v>60.33</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
@@ -603,7 +603,7 @@
         <v>19.5988</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6833</v>
+        <v>63.5</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
@@ -633,7 +633,7 @@
         <v>22.191</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8456</v>
+        <v>70.31</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -663,7 +663,7 @@
         <v>20.9913</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4695</v>
+        <v>45.36</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
@@ -693,7 +693,7 @@
         <v>17.4814</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8511</v>
+        <v>43.09</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
@@ -723,7 +723,7 @@
         <v>22.4593</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2463</v>
+        <v>79.38</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -751,7 +751,7 @@
         <v>26.5781</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8134</v>
+        <v>68.04</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
@@ -781,7 +781,7 @@
         <v>21.1874</v>
       </c>
       <c r="G12" t="n">
-        <v>2.322</v>
+        <v>67.13</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -811,7 +811,7 @@
         <v>19.4637</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2678</v>
+        <v>56.25</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -843,7 +843,7 @@
         <v>20.6121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8173</v>
+        <v>61.69</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
         <v>27.4648</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4251</v>
+        <v>70.31</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -907,7 +907,7 @@
         <v>26.5781</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5173</v>
+        <v>68.04</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -939,7 +939,7 @@
         <v>24.8047</v>
       </c>
       <c r="G17" t="n">
-        <v>1.1997</v>
+        <v>63.5</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -971,7 +971,7 @@
         <v>25.0318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9901</v>
+        <v>76.66</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>22.2687</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4926</v>
+        <v>54.89</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1033,7 +1033,7 @@
         <v>19.4922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8376</v>
+        <v>49.9</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>27.4894</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2913</v>
+        <v>74.84</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
